--- a/nirs_water_prediction/result/tmp_plsr_opt.xlsx
+++ b/nirs_water_prediction/result/tmp_plsr_opt.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4665,6 +4665,1478 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MSC_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.9791</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9313</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2.3795</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>22.5850</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>22.5851</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>{'n_components': 16}</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>[[0.77578461]
+ [0.70977776]
+ [0.76689212]
+ [0.74671608]
+ [0.7143635 ]
+ [0.70235279]
+ [0.69883644]
+ [0.60115996]
+ [0.75914512]
+ [0.69796335]
+ [0.62889497]
+ [0.5939366 ]
+ [0.57207103]
+ [0.63241406]
+ [0.62677813]
+ [0.57432228]
+ [0.69909547]
+ [0.61743064]
+ [0.60666179]
+ [0.67069394]
+ [0.49163895]
+ [0.50330292]
+ [0.40404671]
+ [0.32211148]
+ [0.3863913 ]
+ [0.36315525]
+ [0.36507412]
+ [0.67045079]
+ [0.72091458]
+ [0.65627481]
+ [0.66852018]
+ [0.59517131]
+ [0.59606582]
+ [0.66417154]
+ [0.643247  ]
+ [0.58529948]
+ [0.60004065]
+ [0.59604309]
+ [0.56632496]
+ [0.72205938]
+ [0.729682  ]
+ [0.74086496]
+ [0.70586039]
+ [0.72917693]
+ [0.71399554]
+ [0.59727688]
+ [0.61379136]
+ [0.62168048]
+ [0.63557938]
+ [0.5605746 ]
+ [0.56204031]
+ [0.67857594]
+ [0.68578427]
+ [0.59037755]
+ [0.55995686]
+ [0.62682636]
+ [0.58936048]
+ [0.60412828]
+ [0.53697781]
+ [0.56062534]
+ [0.51386594]
+ [0.48948384]
+ [0.4478233 ]
+ [0.67809755]
+ [0.73664446]
+ [0.52031582]
+ [0.52904613]
+ [0.56843253]
+ [0.59139194]
+ [0.62010692]
+ [0.59978457]
+ [0.48560811]
+ [0.46567875]
+ [0.73968346]
+ [0.72196384]
+ [0.71505349]
+ [0.68944903]
+ [0.69453892]
+ [0.68916848]
+ [0.56981824]
+ [0.58117934]
+ [0.08320552]
+ [0.08572212]
+ [0.61904111]
+ [0.73518712]
+ [0.44398207]
+ [0.60655179]
+ [0.71900134]
+ [0.60658449]
+ [0.50513887]
+ [0.61135977]
+ [0.46000157]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SNV_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.9791</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9365</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>19.6365</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>19.6357</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>{'n_components': 15}</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>[[0.77308127]
+ [0.693758  ]
+ [0.77488111]
+ [0.7400098 ]
+ [0.71733896]
+ [0.69187114]
+ [0.68310598]
+ [0.62485637]
+ [0.7613539 ]
+ [0.70415229]
+ [0.60412024]
+ [0.59623324]
+ [0.58342921]
+ [0.62719514]
+ [0.63269916]
+ [0.58224175]
+ [0.67910652]
+ [0.60954099]
+ [0.61359601]
+ [0.66987271]
+ [0.49295201]
+ [0.5050852 ]
+ [0.40140158]
+ [0.32961706]
+ [0.39922565]
+ [0.34661306]
+ [0.35289533]
+ [0.67732906]
+ [0.72550426]
+ [0.65658629]
+ [0.67160599]
+ [0.60716745]
+ [0.59707062]
+ [0.66205558]
+ [0.6389286 ]
+ [0.58613939]
+ [0.60400391]
+ [0.59861491]
+ [0.57058057]
+ [0.72952569]
+ [0.73354096]
+ [0.73287809]
+ [0.72099933]
+ [0.72712282]
+ [0.72129835]
+ [0.59613711]
+ [0.62426273]
+ [0.61482116]
+ [0.63840764]
+ [0.56507935]
+ [0.54897682]
+ [0.66937787]
+ [0.68057876]
+ [0.60378181]
+ [0.57715747]
+ [0.63869539]
+ [0.60426346]
+ [0.6080753 ]
+ [0.52754211]
+ [0.56441446]
+ [0.50746332]
+ [0.48814758]
+ [0.44997429]
+ [0.674079  ]
+ [0.72765036]
+ [0.52083079]
+ [0.52749163]
+ [0.5678436 ]
+ [0.58473546]
+ [0.62736857]
+ [0.59694683]
+ [0.48083847]
+ [0.46637446]
+ [0.74211751]
+ [0.7133005 ]
+ [0.71331036]
+ [0.6717999 ]
+ [0.68857642]
+ [0.69574775]
+ [0.56816823]
+ [0.5804058 ]
+ [0.09114874]
+ [0.08137638]
+ [0.61861912]
+ [0.73519061]
+ [0.44226105]
+ [0.60895995]
+ [0.71920916]
+ [0.61212925]
+ [0.50305854]
+ [0.61395179]
+ [0.45960437]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DWT_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.9749</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9586</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>3.3532</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>31.1299</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>31.1300</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>{'n_components': 136}</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>[[0.73976988]
+ [0.71031461]
+ [0.78108058]
+ [0.7173946 ]
+ [0.7219603 ]
+ [0.74311282]
+ [0.68279272]
+ [0.66686516]
+ [0.74600114]
+ [0.73160681]
+ [0.62979541]
+ [0.59885674]
+ [0.56295863]
+ [0.61807941]
+ [0.6472207 ]
+ [0.60488875]
+ [0.67514287]
+ [0.64053237]
+ [0.61756851]
+ [0.65376102]
+ [0.50378922]
+ [0.48768497]
+ [0.41270114]
+ [0.3475829 ]
+ [0.38005083]
+ [0.34729866]
+ [0.32720404]
+ [0.70104199]
+ [0.73983733]
+ [0.65264192]
+ [0.65986515]
+ [0.616407  ]
+ [0.60425059]
+ [0.63372846]
+ [0.61663745]
+ [0.5894961 ]
+ [0.62764299]
+ [0.58990291]
+ [0.56676879]
+ [0.73652256]
+ [0.7143569 ]
+ [0.72328793]
+ [0.68913878]
+ [0.71437718]
+ [0.72739718]
+ [0.5902785 ]
+ [0.62214899]
+ [0.59552086]
+ [0.59850332]
+ [0.5278448 ]
+ [0.54690443]
+ [0.69655006]
+ [0.6865314 ]
+ [0.60280038]
+ [0.58669641]
+ [0.61456409]
+ [0.60355401]
+ [0.59199226]
+ [0.54832505]
+ [0.54514487]
+ [0.48489833]
+ [0.45953834]
+ [0.49243183]
+ [0.70935429]
+ [0.7411084 ]
+ [0.55650972]
+ [0.55304571]
+ [0.60877081]
+ [0.59735501]
+ [0.62676523]
+ [0.64114834]
+ [0.49111384]
+ [0.4684697 ]
+ [0.73158713]
+ [0.70456006]
+ [0.6916592 ]
+ [0.68392534]
+ [0.6917437 ]
+ [0.66415539]
+ [0.5671415 ]
+ [0.57787615]
+ [0.1020235 ]
+ [0.10918445]
+ [0.61344192]
+ [0.72959395]
+ [0.42731474]
+ [0.61103355]
+ [0.7166832 ]
+ [0.60354799]
+ [0.50249587]
+ [0.62672471]
+ [0.46811026]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>D1_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.9746</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9048</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0.9829</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>22.3133</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>22.3142</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>{'n_components': 31}</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>[[0.83840167]
+ [0.71652277]
+ [0.73384119]
+ [0.6871076 ]
+ [0.65013684]
+ [0.72832323]
+ [0.70751797]
+ [0.56914497]
+ [0.70284814]
+ [0.70007578]
+ [0.67131259]
+ [0.63949111]
+ [0.56730464]
+ [0.66142637]
+ [0.59490668]
+ [0.62930303]
+ [0.70313063]
+ [0.56040373]
+ [0.66355164]
+ [0.62957644]
+ [0.4927135 ]
+ [0.52268535]
+ [0.40938166]
+ [0.35362168]
+ [0.37588686]
+ [0.34564062]
+ [0.33264576]
+ [0.6474274 ]
+ [0.72428738]
+ [0.64627361]
+ [0.67629093]
+ [0.60331266]
+ [0.59925083]
+ [0.64906223]
+ [0.59820637]
+ [0.59106223]
+ [0.6170743 ]
+ [0.61527151]
+ [0.54165721]
+ [0.74304186]
+ [0.72162099]
+ [0.68337013]
+ [0.68464554]
+ [0.65759357]
+ [0.71472322]
+ [0.59558138]
+ [0.60842107]
+ [0.63466363]
+ [0.62290206]
+ [0.569035  ]
+ [0.6019772 ]
+ [0.68386806]
+ [0.71985213]
+ [0.58736251]
+ [0.56201758]
+ [0.635588  ]
+ [0.58397069]
+ [0.59035561]
+ [0.50860599]
+ [0.52788245]
+ [0.49614735]
+ [0.49811172]
+ [0.48070084]
+ [0.63929738]
+ [0.74330509]
+ [0.52626092]
+ [0.51166043]
+ [0.57176104]
+ [0.61916974]
+ [0.61307763]
+ [0.5890356 ]
+ [0.4891891 ]
+ [0.48171397]
+ [0.74769352]
+ [0.71612464]
+ [0.71852878]
+ [0.69411954]
+ [0.70905298]
+ [0.69192882]
+ [0.55305184]
+ [0.58823562]
+ [0.03393948]
+ [0.07763548]
+ [0.6234532 ]
+ [0.72544785]
+ [0.4386607 ]
+ [0.61287303]
+ [0.71238021]
+ [0.60793895]
+ [0.50501879]
+ [0.60506533]
+ [0.44910662]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MA_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.9793</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.9421</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0.9087</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>18.0086</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>18.0086</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>{'n_components': 29}</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>[[0.77459674]
+ [0.70285112]
+ [0.7914921 ]
+ [0.74693054]
+ [0.69262641]
+ [0.76087409]
+ [0.69024504]
+ [0.63274182]
+ [0.73719971]
+ [0.70557913]
+ [0.64759576]
+ [0.59598052]
+ [0.58993628]
+ [0.64022196]
+ [0.63913221]
+ [0.61295402]
+ [0.69391849]
+ [0.59491999]
+ [0.63910858]
+ [0.64521063]
+ [0.49476335]
+ [0.48894312]
+ [0.43110499]
+ [0.33738164]
+ [0.39045557]
+ [0.35135825]
+ [0.3404306 ]
+ [0.68541542]
+ [0.7290536 ]
+ [0.6678135 ]
+ [0.66501587]
+ [0.62460526]
+ [0.61712069]
+ [0.6522062 ]
+ [0.61392979]
+ [0.58813986]
+ [0.60074709]
+ [0.60912298]
+ [0.56224874]
+ [0.735523  ]
+ [0.71912406]
+ [0.72931249]
+ [0.66987358]
+ [0.69139317]
+ [0.71428047]
+ [0.58010253]
+ [0.60711763]
+ [0.61604077]
+ [0.62992344]
+ [0.54194686]
+ [0.56884743]
+ [0.67525749]
+ [0.6807843 ]
+ [0.57923974]
+ [0.54524998]
+ [0.63084958]
+ [0.59488895]
+ [0.60070628]
+ [0.54369661]
+ [0.54170839]
+ [0.47862009]
+ [0.47104231]
+ [0.48280413]
+ [0.68115216]
+ [0.72720893]
+ [0.53482364]
+ [0.51748711]
+ [0.57491719]
+ [0.6165062 ]
+ [0.6247499 ]
+ [0.63615005]
+ [0.47225296]
+ [0.4663886 ]
+ [0.7680772 ]
+ [0.72332519]
+ [0.72758659]
+ [0.67041963]
+ [0.66689266]
+ [0.68134489]
+ [0.54825207]
+ [0.57338399]
+ [0.08421844]
+ [0.08479206]
+ [0.6224498 ]
+ [0.73975781]
+ [0.43824441]
+ [0.61813496]
+ [0.71414553]
+ [0.60735487]
+ [0.50337076]
+ [0.61558609]
+ [0.46424231]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.9750</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.9370</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0.7629</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>19.5233</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>19.5235</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>{'n_components': 22}</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>[[0.77829354]
+ [0.70920185]
+ [0.7798089 ]
+ [0.72320564]
+ [0.69855164]
+ [0.74979553]
+ [0.68649224]
+ [0.60467015]
+ [0.7215223 ]
+ [0.69838829]
+ [0.66824598]
+ [0.60786653]
+ [0.60332407]
+ [0.626753  ]
+ [0.64046777]
+ [0.59787474]
+ [0.7044023 ]
+ [0.55573255]
+ [0.63781857]
+ [0.66021924]
+ [0.4812275 ]
+ [0.48578553]
+ [0.41516496]
+ [0.34102463]
+ [0.40019625]
+ [0.34479715]
+ [0.36503844]
+ [0.70059565]
+ [0.70823533]
+ [0.65489854]
+ [0.66207793]
+ [0.62197311]
+ [0.60663765]
+ [0.64168685]
+ [0.6176984 ]
+ [0.58928212]
+ [0.59711696]
+ [0.59322455]
+ [0.56151153]
+ [0.75181499]
+ [0.71918683]
+ [0.71350133]
+ [0.7015027 ]
+ [0.70018863]
+ [0.71853282]
+ [0.58971525]
+ [0.6014639 ]
+ [0.61057474]
+ [0.62973945]
+ [0.57578625]
+ [0.5905677 ]
+ [0.68030264]
+ [0.71276561]
+ [0.59843753]
+ [0.54351058]
+ [0.64589044]
+ [0.61982952]
+ [0.59611927]
+ [0.53703583]
+ [0.54865458]
+ [0.49534492]
+ [0.49843119]
+ [0.4844302 ]
+ [0.6967059 ]
+ [0.71747982]
+ [0.53892148]
+ [0.50933849]
+ [0.58460345]
+ [0.61686249]
+ [0.63248021]
+ [0.6082604 ]
+ [0.47274673]
+ [0.42996634]
+ [0.76537596]
+ [0.72661042]
+ [0.71094766]
+ [0.65893474]
+ [0.68457683]
+ [0.68941939]
+ [0.5575075 ]
+ [0.58069705]
+ [0.04164105]
+ [0.09798275]
+ [0.62388006]
+ [0.73358321]
+ [0.43235022]
+ [0.61686373]
+ [0.71672755]
+ [0.6109471 ]
+ [0.50795204]
+ [0.6119117 ]
+ [0.47069354]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SG_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.9781</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.9513</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1.6260</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>22.9676</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>22.9681</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>{'n_components': 60}</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>[[0.78052304]
+ [0.70621327]
+ [0.76998166]
+ [0.72981892]
+ [0.69813465]
+ [0.75258311]
+ [0.68568942]
+ [0.63557099]
+ [0.7358056 ]
+ [0.70263312]
+ [0.67419942]
+ [0.60375592]
+ [0.59921737]
+ [0.63579735]
+ [0.6546107 ]
+ [0.59653488]
+ [0.67599063]
+ [0.58640517]
+ [0.64146244]
+ [0.64753583]
+ [0.49342822]
+ [0.48771834]
+ [0.42676621]
+ [0.33891483]
+ [0.39284206]
+ [0.34584152]
+ [0.33347506]
+ [0.69668454]
+ [0.72685021]
+ [0.66267025]
+ [0.66368416]
+ [0.61771118]
+ [0.61594271]
+ [0.64270604]
+ [0.61904949]
+ [0.5806068 ]
+ [0.60585547]
+ [0.60365758]
+ [0.55173862]
+ [0.7406927 ]
+ [0.71868924]
+ [0.7176479 ]
+ [0.66742339]
+ [0.70243749]
+ [0.72531677]
+ [0.58779546]
+ [0.60991212]
+ [0.61283207]
+ [0.62812055]
+ [0.53783346]
+ [0.56686417]
+ [0.68339989]
+ [0.68740036]
+ [0.59812654]
+ [0.56270531]
+ [0.64389273]
+ [0.59565322]
+ [0.57971223]
+ [0.54399535]
+ [0.53176036]
+ [0.48673391]
+ [0.48744696]
+ [0.49353303]
+ [0.67264285]
+ [0.7332134 ]
+ [0.56171988]
+ [0.53813025]
+ [0.58025434]
+ [0.62945304]
+ [0.61679567]
+ [0.65089828]
+ [0.46410811]
+ [0.46739578]
+ [0.74980258]
+ [0.71758076]
+ [0.7176135 ]
+ [0.6577228 ]
+ [0.67181794]
+ [0.66897687]
+ [0.55732313]
+ [0.56660994]
+ [0.0912738 ]
+ [0.0803982 ]
+ [0.62444835]
+ [0.73318514]
+ [0.43522141]
+ [0.61655572]
+ [0.71406307]
+ [0.60874878]
+ [0.50567185]
+ [0.61854676]
+ [0.47345259]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DT_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.9765</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.9454</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1.3771</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>28.6045</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>28.6042</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>{'n_components': 49}</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>[[0.77097374]
+ [0.69190824]
+ [0.77074797]
+ [0.74182483]
+ [0.7077517 ]
+ [0.74433241]
+ [0.71896188]
+ [0.62884617]
+ [0.75158651]
+ [0.74744453]
+ [0.66110106]
+ [0.59673448]
+ [0.60253897]
+ [0.63985098]
+ [0.67280718]
+ [0.59035405]
+ [0.68940457]
+ [0.59815726]
+ [0.6407728 ]
+ [0.65081112]
+ [0.49101413]
+ [0.49637345]
+ [0.40966648]
+ [0.34401011]
+ [0.39847912]
+ [0.34576686]
+ [0.34352151]
+ [0.68222469]
+ [0.72091706]
+ [0.67030168]
+ [0.67162694]
+ [0.60998659]
+ [0.60995408]
+ [0.63967075]
+ [0.61747538]
+ [0.58391768]
+ [0.62464274]
+ [0.61268932]
+ [0.57292645]
+ [0.72852211]
+ [0.72769059]
+ [0.70912228]
+ [0.69168603]
+ [0.70082665]
+ [0.70494299]
+ [0.59929934]
+ [0.60920521]
+ [0.63011934]
+ [0.62578419]
+ [0.54550152]
+ [0.55201635]
+ [0.68208422]
+ [0.69203283]
+ [0.57656341]
+ [0.57055418]
+ [0.63177375]
+ [0.60482359]
+ [0.58767348]
+ [0.55487918]
+ [0.54926642]
+ [0.49709581]
+ [0.48005158]
+ [0.47538616]
+ [0.69511439]
+ [0.73196022]
+ [0.53035476]
+ [0.52594263]
+ [0.59208997]
+ [0.63005427]
+ [0.63680969]
+ [0.6430275 ]
+ [0.46836352]
+ [0.44145968]
+ [0.75355876]
+ [0.71349011]
+ [0.70056152]
+ [0.67019134]
+ [0.67221526]
+ [0.6677806 ]
+ [0.54390638]
+ [0.57700845]
+ [0.08733727]
+ [0.08094417]
+ [0.62407924]
+ [0.73465694]
+ [0.42805181]
+ [0.61495952]
+ [0.71284064]
+ [0.60783312]
+ [0.50605763]
+ [0.62051971]
+ [0.47138351]]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nirs_water_prediction/result/tmp_plsr_opt.xlsx
+++ b/nirs_water_prediction/result/tmp_plsr_opt.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6137,6 +6137,1734 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SG_NEW_PLSR</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.9485</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.9516</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>4.5445</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2.3489</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>3.1847</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>3.1851</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>n_comp=13</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>[[0.73053116]
+ [0.71128233]
+ [0.71570133]
+ [0.71080782]
+ [0.68888396]
+ [0.73058606]
+ [0.66932304]
+ [0.72007136]
+ [0.71863451]
+ [0.69047527]
+ [0.64822491]
+ [0.62604854]
+ [0.62336586]
+ [0.61147977]
+ [0.64507443]
+ [0.65568796]
+ [0.65899786]
+ [0.65142301]
+ [0.63154648]
+ [0.63338204]
+ [0.45522268]
+ [0.48442645]
+ [0.4253026 ]
+ [0.33040742]
+ [0.36970318]
+ [0.33331008]
+ [0.30707083]
+ [0.69311359]
+ [0.69404324]
+ [0.60562934]
+ [0.65980857]
+ [0.63688048]
+ [0.59811079]
+ [0.64227571]
+ [0.64671482]
+ [0.61423176]
+ [0.67662202]
+ [0.60747934]
+ [0.60742982]
+ [0.73466317]
+ [0.6990289 ]
+ [0.73304808]
+ [0.67473687]
+ [0.69042669]
+ [0.7254306 ]
+ [0.61742974]
+ [0.61212484]
+ [0.63493231]
+ [0.63914252]
+ [0.54465935]
+ [0.56773399]
+ [0.69112031]
+ [0.68727773]
+ [0.61481648]
+ [0.60823999]
+ [0.60593569]
+ [0.59741006]
+ [0.59968217]
+ [0.54455434]
+ [0.54807374]
+ [0.51062363]
+ [0.51162618]
+ [0.4993962 ]
+ [0.66500559]
+ [0.67254672]
+ [0.51505757]
+ [0.5499237 ]
+ [0.57293415]
+ [0.56408316]
+ [0.64507367]
+ [0.63138326]
+ [0.49710329]
+ [0.47642598]
+ [0.70558993]
+ [0.69640149]
+ [0.71021471]
+ [0.67526103]
+ [0.63432497]
+ [0.66499665]
+ [0.55690317]
+ [0.58205204]
+ [0.10048106]
+ [0.10023347]
+ [0.62765417]
+ [0.69803018]
+ [0.39738902]
+ [0.62082976]
+ [0.71724227]
+ [0.60596351]
+ [0.51723342]
+ [0.63192766]
+ [0.48284427]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SG_NEW_PLSR</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.9449</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.9516</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4.5445</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2.3414</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>3.1028</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>3.1032</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[{'index': [1, 6, 28, 55, 57, 113, 126, 165, 167, 169, 177, 180, 181, 229, 233]}]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>n_comp=13</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>[0.72 0.72 0.73 0.73 0.72 0.72 0.7  0.7  0.7  0.7  0.64 0.64 0.63 0.63
+ 0.64 0.64 0.62 0.62 0.62 0.62 0.43 0.43 0.46 0.34 0.34 0.31 0.31 0.72
+ 0.72 0.66 0.66 0.62 0.62 0.62 0.62 0.62 0.62 0.58 0.58 0.74 0.74 0.72
+ 0.72 0.72 0.72 0.62 0.62 0.59 0.59 0.53 0.53 0.7  0.7  0.6  0.6  0.61
+ 0.61 0.54 0.54 0.52 0.52 0.51 0.51 0.71 0.71 0.55 0.55 0.63 0.63 0.6
+ 0.6  0.46 0.46 0.73 0.73 0.71 0.71 0.67 0.67 0.59 0.59 0.1  0.1  0.63
+ 0.73 0.46 0.62 0.72 0.61 0.51 0.6  0.46]</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>[[0.73053116]
+ [0.71128233]
+ [0.71570133]
+ [0.71080782]
+ [0.68888396]
+ [0.73058606]
+ [0.66932304]
+ [0.72007136]
+ [0.71863451]
+ [0.69047527]
+ [0.64822491]
+ [0.62604854]
+ [0.62336586]
+ [0.61147977]
+ [0.64507443]
+ [0.65568796]
+ [0.65899786]
+ [0.65142301]
+ [0.63154648]
+ [0.63338204]
+ [0.45522268]
+ [0.48442645]
+ [0.4253026 ]
+ [0.33040742]
+ [0.36970318]
+ [0.33331008]
+ [0.30707083]
+ [0.69311359]
+ [0.69404324]
+ [0.60562934]
+ [0.65980857]
+ [0.63688048]
+ [0.59811079]
+ [0.64227571]
+ [0.64671482]
+ [0.61423176]
+ [0.67662202]
+ [0.60747934]
+ [0.60742982]
+ [0.73466317]
+ [0.6990289 ]
+ [0.73304808]
+ [0.67473687]
+ [0.69042669]
+ [0.7254306 ]
+ [0.61742974]
+ [0.61212484]
+ [0.63493231]
+ [0.63914252]
+ [0.54465935]
+ [0.56773399]
+ [0.69112031]
+ [0.68727773]
+ [0.61481648]
+ [0.60823999]
+ [0.60593569]
+ [0.59741006]
+ [0.59968217]
+ [0.54455434]
+ [0.54807374]
+ [0.51062363]
+ [0.51162618]
+ [0.4993962 ]
+ [0.66500559]
+ [0.67254672]
+ [0.51505757]
+ [0.5499237 ]
+ [0.57293415]
+ [0.56408316]
+ [0.64507367]
+ [0.63138326]
+ [0.49710329]
+ [0.47642598]
+ [0.70558993]
+ [0.69640149]
+ [0.71021471]
+ [0.67526103]
+ [0.63432497]
+ [0.66499665]
+ [0.55690317]
+ [0.58205204]
+ [0.10048106]
+ [0.10023347]
+ [0.62765417]
+ [0.69803018]
+ [0.39738902]
+ [0.62082976]
+ [0.71724227]
+ [0.60596351]
+ [0.51723342]
+ [0.63192766]
+ [0.48284427]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.9258</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.9121</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>3.3735</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2.3478</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>16.0028</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>16.0028</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>n_comp=105</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>[0.03687 0.03661 0.03716 0.03748 0.03693 0.03677 0.03446 0.03479 0.03822
+ 0.03212 0.03404 0.03226 0.03437 0.03494 0.03449 0.03497]</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>[[0.03651963]
+ [0.03626466]
+ [0.03713211]
+ [0.03731955]
+ [0.03693961]
+ [0.0378444 ]
+ [0.03481333]
+ [0.03480905]
+ [0.03765463]
+ [0.03228193]
+ [0.03358951]
+ [0.03283526]
+ [0.03434923]
+ [0.03602481]
+ [0.03364564]
+ [0.03488273]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_YUMI_PLSR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>YUMI</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.8810</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.9467</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>4.3318</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.5846</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.5846</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[{'index': [8, 9, 36, 49, 74, 75, 96, 116, 124, 134, 144, 145, 160, 198, 220, 274, 276, 277, 295, 307, 308, 325, 329, 341, 344, 381, 399, 431, 480, 492, 512, 515, 527, 536, 547, 548, 560, 568, 576, 585, 609, 619, 621, 625, 644, 654, 665, 666, 672, 677]}]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>n_comp=9</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>[0.03687 0.03661 0.03716 0.03748 0.03693 0.03677 0.03446 0.03479 0.03822
+ 0.03212 0.03404 0.03226 0.03437 0.03494 0.03449 0.03497]</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>[[0.03709747]
+ [0.03616913]
+ [0.0371644 ]
+ [0.03712092]
+ [0.03691176]
+ [0.03767045]
+ [0.03430467]
+ [0.03516508]
+ [0.03761201]
+ [0.03191585]
+ [0.03402659]
+ [0.03230959]
+ [0.03423283]
+ [0.03583322]
+ [0.03450811]
+ [0.03517378]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NONE_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.6173</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.8148</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3810</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.6639</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1.7249</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2.1239</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>34.2157</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>34.2154</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>{'method': ['none']}</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>n_comp=12</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>[[3.69813423]
+ [3.62754655]
+ [3.47147499]
+ [3.71343936]
+ [3.60234814]
+ [3.48103082]
+ [3.73782859]
+ [3.56070541]
+ [3.36926223]
+ [3.42374289]
+ [3.45582645]
+ [3.43175021]
+ [3.29536169]
+ [3.34018151]
+ [3.34105178]
+ [3.48681126]
+ [3.38581987]
+ [3.4394198 ]
+ [3.65600211]
+ [3.53189007]
+ [3.54150212]
+ [3.53883064]
+ [3.69741969]
+ [3.5257066 ]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MSC_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.7240</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5241</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-14.7953</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0.5875</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.5784</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>11.9718</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>11.9715</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>{'method': ['msc']}</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>n_comp=9</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>[[4.20970771]
+ [4.19114294]
+ [4.04223738]
+ [4.28739334]
+ [4.16339702]
+ [4.08260762]
+ [4.25426431]
+ [4.11479619]
+ [3.94469159]
+ [4.03506314]
+ [4.05311824]
+ [3.98533257]
+ [3.92801419]
+ [3.9664078 ]
+ [3.93756988]
+ [4.0289237 ]
+ [3.98738138]
+ [4.04283119]
+ [4.3377425 ]
+ [4.18105928]
+ [4.17558804]
+ [4.05070161]
+ [4.31898087]
+ [4.09084379]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SNV_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.7268</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.7123</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5282</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.5073</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1.4247</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>12.5509</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>12.5504</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>{'method': ['SNV']}</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>n_comp=9</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>[[3.63836565]
+ [3.62156695]
+ [3.46975188]
+ [3.71655136]
+ [3.58975565]
+ [3.50579522]
+ [3.67608738]
+ [3.53808349]
+ [3.37316029]
+ [3.46290138]
+ [3.47938165]
+ [3.41428579]
+ [3.35992828]
+ [3.3911923 ]
+ [3.35758401]
+ [3.45226701]
+ [3.41301142]
+ [3.46620212]
+ [3.76815893]
+ [3.60619735]
+ [3.60078775]
+ [3.47534721]
+ [3.75208183]
+ [3.52707037]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>DWT_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DWT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.7290</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.8135</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5314</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.6618</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1.7196</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>12.0881</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>12.0883</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>{'method': ['dwt']}</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>n_comp=9</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>[[3.61522389]
+ [3.55950667]
+ [3.46341487]
+ [3.65917173]
+ [3.63876245]
+ [3.49972454]
+ [3.7221321 ]
+ [3.57998678]
+ [3.33916858]
+ [3.40396391]
+ [3.46732109]
+ [3.38702742]
+ [3.3571835 ]
+ [3.39573006]
+ [3.36645884]
+ [3.50797061]
+ [3.35157933]
+ [3.41757702]
+ [3.63047856]
+ [3.54443255]
+ [3.53909453]
+ [3.46482743]
+ [3.6561414 ]
+ [3.43671996]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>D1_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.7271</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.8719</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5286</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.7601</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2.0418</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>12.0096</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>12.0092</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>{'method': ['d1']}</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>n_comp=28</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>[[3.62987728]
+ [3.57526425]
+ [3.40812448]
+ [3.73645758]
+ [3.68209601]
+ [3.51398807]
+ [3.68074767]
+ [3.57718094]
+ [3.34025217]
+ [3.47652976]
+ [3.619587  ]
+ [3.38967761]
+ [3.34550723]
+ [3.36137212]
+ [3.3621391 ]
+ [3.5636808 ]
+ [3.37473949]
+ [3.4593501 ]
+ [3.57664392]
+ [3.53409124]
+ [3.49210729]
+ [3.41909814]
+ [3.73410873]
+ [3.57211726]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MA_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.6780</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.7852</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4597</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.6166</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1.6150</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>10.9460</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>10.9464</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>{'method': ['ma']}</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>n_comp=10</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>[[3.62459651]
+ [3.60735792]
+ [3.4708091 ]
+ [3.6798112 ]
+ [3.59008109]
+ [3.46564436]
+ [3.69173707]
+ [3.53917418]
+ [3.36902465]
+ [3.43496953]
+ [3.48019584]
+ [3.40115066]
+ [3.3463413 ]
+ [3.38881117]
+ [3.39977247]
+ [3.48199095]
+ [3.37796017]
+ [3.4490781 ]
+ [3.69442306]
+ [3.57172384]
+ [3.56012355]
+ [3.50828679]
+ [3.68408253]
+ [3.49152519]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PIECEWISE_POLYFIT_BASELINE_CORRECTION</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.7319</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.6810</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5356</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0.4638</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1.3656</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>10.1780</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>10.1783</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>{'method': ['piecewise_polyfit_baseline_correction']}</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>n_comp=9</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>[[3.66541125]
+ [3.66673093]
+ [3.4136051 ]
+ [3.72881513]
+ [3.62953321]
+ [3.49939924]
+ [3.58619929]
+ [3.53984551]
+ [3.47664666]
+ [3.46289441]
+ [3.63469926]
+ [3.48098743]
+ [3.36560492]
+ [3.32958724]
+ [3.39031771]
+ [3.45355942]
+ [3.36961333]
+ [3.50179994]
+ [3.7336494 ]
+ [3.45232315]
+ [3.47742663]
+ [3.49928176]
+ [3.71031324]
+ [3.70109696]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SG_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.4712</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.8545</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.7301</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1.9248</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>22.7059</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>22.7060</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>{'method': ['sg']}</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>n_comp=13</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>[[3.72556249]
+ [3.63383212]
+ [3.47570124]
+ [3.74817486]
+ [3.60860519]
+ [3.48142443]
+ [3.76046728]
+ [3.57260337]
+ [3.33831259]
+ [3.41365969]
+ [3.45090324]
+ [3.42943233]
+ [3.26615578]
+ [3.361743  ]
+ [3.38114637]
+ [3.51026207]
+ [3.38632276]
+ [3.43425548]
+ [3.61467597]
+ [3.4944946 ]
+ [3.51495945]
+ [3.53176035]
+ [3.70272705]
+ [3.52278274]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DT_NONE_PLSR</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PLSR</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.7987</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.8102</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.6379</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0.6565</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1.7062</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>12.1487</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>12.1496</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>{'method': ['dt']}</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>n_comp=8</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>[3.687 3.72  3.496 3.699 3.82  3.446 3.71  3.67  3.212 3.464 3.59  3.404
+ 3.226 3.424 3.435 3.494 3.407 3.451 3.494 3.505 3.491 3.449 3.676 3.557]</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>[[3.67015863]
+ [3.6195061 ]
+ [3.48467348]
+ [3.70432391]
+ [3.58848956]
+ [3.51376155]
+ [3.73307469]
+ [3.54313032]
+ [3.35841524]
+ [3.40214514]
+ [3.46473906]
+ [3.41335393]
+ [3.33818416]
+ [3.38778725]
+ [3.38947918]
+ [3.51010875]
+ [3.35756415]
+ [3.41914153]
+ [3.64317735]
+ [3.54366228]
+ [3.55586704]
+ [3.49910174]
+ [3.68951922]
+ [3.4985304 ]]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
